--- a/Red30TechSpeakerInfo.xlsx
+++ b/Red30TechSpeakerInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18594\top-five-things-to-know-in-advanced-sql-4403486\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bartek/Desktop/Bartek/Programowanie/sql/top5thingSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4AC5D7-45C8-489E-B3DF-8414ED2FC200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FB4EFD-4D1B-264E-A88F-A8E9D5824D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpeakerInfo" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,6 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>Biography (short paragraph)</t>
-  </si>
-  <si>
-    <t>Session Name</t>
-  </si>
-  <si>
-    <t>Description of Session (short paragraph)</t>
-  </si>
-  <si>
-    <t>Category Track</t>
-  </si>
-  <si>
     <t>Aksh Khatri</t>
   </si>
   <si>
@@ -833,6 +821,18 @@
   </si>
   <si>
     <t>Keynote</t>
+  </si>
+  <si>
+    <t>Biography_(short_paragraph)</t>
+  </si>
+  <si>
+    <t>Session_Name</t>
+  </si>
+  <si>
+    <t>Description_of_Session_(short_paragraph)</t>
+  </si>
+  <si>
+    <t>Category_Track</t>
   </si>
 </sst>
 </file>
@@ -903,26 +903,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -946,6 +946,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -964,6 +965,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -982,6 +984,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1000,6 +1003,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1018,6 +1022,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1036,6 +1041,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1054,6 +1060,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1072,6 +1079,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1106,16 +1114,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEF17B9-5A17-CC4A-9EF2-8C992637C86A}" name="Table1" displayName="Table1" ref="A1:G51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEF17B9-5A17-CC4A-9EF2-8C992637C86A}" name="Table1" displayName="Table1" ref="A1:G51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
   <autoFilter ref="A1:G51" xr:uid="{6FEF17B9-5A17-CC4A-9EF2-8C992637C86A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{981E3AA8-74F7-964D-B614-3E268C930837}" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A65F6905-224D-B94B-BEB4-591F1A104866}" name="Title" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{EBD893BC-5387-AC4F-991A-693FC9B64438}" name="Organization" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0BEF3BB4-DB6E-9C4C-BB59-7DF10310C347}" name="Biography (short paragraph)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{771412B2-21F5-034E-B037-75CBE09BA77E}" name="Session Name" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{93765F73-8B73-124E-8766-C20A7285C624}" name="Description of Session (short paragraph)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{43BC60B8-93AD-D54A-96FE-5FCA4C1AF959}" name="Category Track" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{981E3AA8-74F7-964D-B614-3E268C930837}" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A65F6905-224D-B94B-BEB4-591F1A104866}" name="Title" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EBD893BC-5387-AC4F-991A-693FC9B64438}" name="Organization" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0BEF3BB4-DB6E-9C4C-BB59-7DF10310C347}" name="Biography_(short_paragraph)" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{771412B2-21F5-034E-B037-75CBE09BA77E}" name="Session_Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{93765F73-8B73-124E-8766-C20A7285C624}" name="Description_of_Session_(short_paragraph)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{43BC60B8-93AD-D54A-96FE-5FCA4C1AF959}" name="Category_Track" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,1193 +1332,1193 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="47" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="5"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="136" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="136" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="170" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="68" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="119" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="140.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="48" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="49" spans="1:7" ht="136" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="102" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="85" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="78" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
